--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/heatmap_global_data_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/heatmap_global_data_General.xlsx
@@ -444,31 +444,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>2.468373163546004</v>
+        <v>4.450756068883417</v>
       </c>
       <c r="C2">
-        <v>0.5811703937302604</v>
+        <v>0.5705563583352559</v>
       </c>
       <c r="D2">
-        <v>0.80053267444356</v>
+        <v>0.8271820525765932</v>
       </c>
       <c r="E2">
-        <v>1.40982501785926</v>
+        <v>0.8299708573007165</v>
       </c>
       <c r="F2">
-        <v>2.270482596061766</v>
+        <v>4.109739326196543</v>
       </c>
       <c r="G2">
-        <v>1.10673458558518</v>
+        <v>1.818061203487019</v>
       </c>
       <c r="H2">
-        <v>1.070183749104134</v>
+        <v>1.866885788167447</v>
       </c>
       <c r="I2">
-        <v>0.8493397463712098</v>
+        <v>1.62336650943424</v>
       </c>
       <c r="J2">
-        <v>1.959247250829587</v>
+        <v>2.173583111142386</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -476,31 +476,31 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>3.163775868438677</v>
+        <v>4.182438981654339</v>
       </c>
       <c r="C3">
-        <v>0.5774576320792454</v>
+        <v>0.5671364262344255</v>
       </c>
       <c r="D3">
-        <v>0.7877186732480409</v>
+        <v>0.820242277353684</v>
       </c>
       <c r="E3">
-        <v>1.489903633896171</v>
+        <v>0.8283628986472749</v>
       </c>
       <c r="F3">
-        <v>2.991284383072845</v>
+        <v>3.824239515718811</v>
       </c>
       <c r="G3">
-        <v>1.298246623877678</v>
+        <v>1.343249355914538</v>
       </c>
       <c r="H3">
-        <v>1.329647778123854</v>
+        <v>1.380402344219233</v>
       </c>
       <c r="I3">
-        <v>1.297661622856752</v>
+        <v>1.488556683684069</v>
       </c>
       <c r="J3">
-        <v>2.187906433249951</v>
+        <v>1.953610766464056</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -508,31 +508,31 @@
         <v>30</v>
       </c>
       <c r="B4">
-        <v>3.453850846367811</v>
+        <v>4.40921118037155</v>
       </c>
       <c r="C4">
-        <v>0.5777560363502648</v>
+        <v>0.5726349796273063</v>
       </c>
       <c r="D4">
-        <v>0.7883862278262983</v>
+        <v>0.8282157915461155</v>
       </c>
       <c r="E4">
-        <v>1.397661323590862</v>
+        <v>0.8322747775657097</v>
       </c>
       <c r="F4">
-        <v>3.247876995903164</v>
+        <v>4.103986298999252</v>
       </c>
       <c r="G4">
-        <v>1.255011094666094</v>
+        <v>1.497911852313694</v>
       </c>
       <c r="H4">
-        <v>1.187061053241883</v>
+        <v>1.695747575946762</v>
       </c>
       <c r="I4">
-        <v>1.313617359090749</v>
+        <v>1.575631216401205</v>
       </c>
       <c r="J4">
-        <v>1.953213036957726</v>
+        <v>1.918298195058024</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -540,31 +540,31 @@
         <v>40</v>
       </c>
       <c r="B5">
-        <v>2.955455533854199</v>
+        <v>4.5231808073141</v>
       </c>
       <c r="C5">
-        <v>0.5790214985339739</v>
+        <v>0.5724119201840667</v>
       </c>
       <c r="D5">
-        <v>0.7764851498794437</v>
+        <v>0.8376914854236106</v>
       </c>
       <c r="E5">
-        <v>1.39167447515791</v>
+        <v>0.8456505654507869</v>
       </c>
       <c r="F5">
-        <v>2.72181774228682</v>
+        <v>4.200855921370634</v>
       </c>
       <c r="G5">
-        <v>1.178219531125906</v>
+        <v>1.493714502735786</v>
       </c>
       <c r="H5">
-        <v>1.137502484051251</v>
+        <v>1.514704241553418</v>
       </c>
       <c r="I5">
-        <v>0.8768703123610273</v>
+        <v>1.960225584628323</v>
       </c>
       <c r="J5">
-        <v>2.026130632456591</v>
+        <v>2.195635637814436</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -572,31 +572,31 @@
         <v>50</v>
       </c>
       <c r="B6">
-        <v>3.108082487074974</v>
+        <v>3.840829591153802</v>
       </c>
       <c r="C6">
-        <v>0.5800196476824288</v>
+        <v>0.5673521250123125</v>
       </c>
       <c r="D6">
-        <v>0.8081876453848597</v>
+        <v>0.8335627481414024</v>
       </c>
       <c r="E6">
-        <v>1.611972106168202</v>
+        <v>0.8416687413508381</v>
       </c>
       <c r="F6">
-        <v>2.937753049473158</v>
+        <v>3.563375856854013</v>
       </c>
       <c r="G6">
-        <v>1.187908763415526</v>
+        <v>1.308718891269988</v>
       </c>
       <c r="H6">
-        <v>1.243186337533633</v>
+        <v>1.367040328565438</v>
       </c>
       <c r="I6">
-        <v>1.126506566211152</v>
+        <v>1.311769756366188</v>
       </c>
       <c r="J6">
-        <v>2.297252780636199</v>
+        <v>2.296709150532998</v>
       </c>
     </row>
   </sheetData>
